--- a/FFE-AddIn/_Doc/Attachments/FFE Examples.xlsx
+++ b/FFE-AddIn/_Doc/Attachments/FFE Examples.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4619C76-A072-4649-ACC8-5D099F284E48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="6_{078F3662-E7CF-4650-9E5B-B5E26D6FC978}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FF4C9D3C-7A0B-4D0A-950A-4D9CA8DF32DC}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{314593F2-E385-4A9A-9CBA-FA85C79DDF42}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ [$EUR]"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00\ [$EUR]"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -126,7 +126,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C14" ca="1" si="0">_xlfn.FORMULATEXT(D2)</f>
+        <f ca="1">_xlfn.FORMULATEXT(D2)</f>
         <v>=QAVQ("MSFT")</v>
       </c>
       <c r="D2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(D3)</f>
         <v>=QAVID("MSFT")</v>
       </c>
       <c r="D3">
@@ -522,7 +522,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(D4)</f>
         <v>=QAVD("MSFT")</v>
       </c>
       <c r="D4">
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(D5)</f>
         <v>=QAVDA("MSFT")</v>
       </c>
       <c r="D5">
@@ -554,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(D6)</f>
         <v>=QAVW("MSFT")</v>
       </c>
       <c r="D6">
@@ -570,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(D7)</f>
         <v>=QAVWA("MSFT")</v>
       </c>
       <c r="D7">
@@ -586,7 +586,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(D8)</f>
         <v>=QAVM("MSFT")</v>
       </c>
       <c r="D8">
@@ -602,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(D9)</f>
         <v>=QAVMA("MSFT")</v>
       </c>
       <c r="D9">
@@ -618,7 +618,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(D10)</f>
         <v>=QAVTS("MSFT")</v>
       </c>
       <c r="D10">
@@ -634,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(D11)</f>
         <v>=QCB("870747")</v>
       </c>
       <c r="D11">
@@ -650,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(D12)</f>
         <v>=QCBF("870747")</v>
       </c>
       <c r="D12" s="1">
@@ -666,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(D13)</f>
         <v>=QJE("IE00B4L5Y983")</v>
       </c>
       <c r="D13">
@@ -682,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">_xlfn.FORMULATEXT(D14)</f>
         <v>=QYF("MSFT")</v>
       </c>
       <c r="D14">
